--- a/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>-19,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,34</t>
+          <t>-2,22; 4,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,83</t>
+          <t>-2,34; 6,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,76</t>
+          <t>-2,26; 4,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,66</t>
+          <t>-5,85; 1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 144,61</t>
+          <t>-37,3; 145,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 143,96</t>
+          <t>-28,36; 137,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 153,5</t>
+          <t>-38,85; 138,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 20,56</t>
+          <t>-43,73; 14,85</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,01</t>
+          <t>-3,52; 3,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,17</t>
+          <t>-3,22; 4,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,23</t>
+          <t>-3,41; 3,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,55</t>
+          <t>-4,14; 3,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,03; 114,34</t>
+          <t>-48,53; 91,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 103,61</t>
+          <t>-38,31; 89,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 85,73</t>
+          <t>-49,53; 97,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 46,42</t>
+          <t>-35,79; 46,76</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-16,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,89</t>
+          <t>-1,02; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,79</t>
+          <t>-6,25; 2,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,32</t>
+          <t>-4,17; 6,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 14,84</t>
+          <t>-3,7; 14,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 168,85</t>
+          <t>-16,48; 165,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 28,87</t>
+          <t>-46,03; 31,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 102,23</t>
+          <t>-47,28; 109,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 366,84</t>
+          <t>-24,3; 304,36</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>15,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>106,57%</t>
+          <t>106,4%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,28</t>
+          <t>-2,63; 2,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,23</t>
+          <t>-1,09; 4,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,35</t>
+          <t>-1,08; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 48,16</t>
+          <t>-4,18; 50,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 47,55</t>
+          <t>-30,34; 37,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 53,61</t>
+          <t>-8,41; 49,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 68,79</t>
+          <t>-12,53; 64,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 344,4</t>
+          <t>-27,63; 344,68</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-23,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,86</t>
+          <t>-3,49; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,74</t>
+          <t>1,6; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,66</t>
+          <t>-0,95; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 0,11</t>
+          <t>-11,06; -0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 61,69</t>
+          <t>-32,74; 71,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 127,96</t>
+          <t>13,8; 123,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 81,19</t>
+          <t>-8,67; 81,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 0,37</t>
+          <t>-45,84; -1,64</t>
         </is>
       </c>
     </row>
@@ -1125,37 +1125,37 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>218,02%</t>
+          <t>215,64%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,84</t>
+          <t>0,58; 6,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,71</t>
+          <t>-2,02; 6,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,81</t>
+          <t>-1,3; 5,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,72</t>
+          <t>7,27; 16,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 251,9</t>
+          <t>5,53; 235,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 124,74</t>
+          <t>-18,26; 117,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 135,73</t>
+          <t>-14,25; 131,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,65; 550,47</t>
+          <t>69,1; 626,43</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1230,32 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,69</t>
+          <t>0,06; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,55</t>
+          <t>0,49; 3,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,07</t>
+          <t>0,29; 3,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 23,72</t>
+          <t>0,24; 21,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 42,78</t>
+          <t>0,78; 42,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 40,24</t>
+          <t>4,98; 40,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 48,77</t>
+          <t>3,47; 46,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 194,88</t>
+          <t>1,24; 170,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
